--- a/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create_PCase_Positive_POE2.xlsx
+++ b/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create_PCase_Positive_POE2.xlsx
@@ -674,9 +674,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
@@ -705,15 +705,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -721,30 +713,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -760,29 +728,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -790,21 +743,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -820,7 +759,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -834,6 +773,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -842,7 +820,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -875,7 +875,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,7 +887,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,19 +971,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,49 +1013,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,73 +1043,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,6 +1129,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1139,15 +1154,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1167,17 +1173,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1199,15 +1208,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1219,13 +1219,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1237,130 +1237,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1805,8 +1805,8 @@
   <sheetPr/>
   <dimension ref="A1:H155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:A155"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2018,7 +2018,7 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -4865,27 +4865,21 @@
       <c r="H155" s="10"/>
     </row>
   </sheetData>
-  <dataValidations count="9">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 B4 B7 B44 B47 C2:C3">
       <formula1/>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 B5:B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C44 C45 C46 B5:B6 B45:B46">
       <formula1>[3]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8 B9:B12 B13:B31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8 B48 B9:B12 B13:B31 B49:B52">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32 C32 B33 C33 B34:B35 B36:B38 B40:B43 C34:C35 C36:C43">
       <formula1>[4]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C44 C45 C46 B45:B46">
-      <formula1>[3]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48 B49:B52">
-      <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83 C83 B84 B85 B116 C116 B117 B120 B121 B122 C122 B123 C123 B53:B54 B55:B56 B64:B73 B74:B82 B86:B87 B88:B89 B97:B106 B107:B115 B118:B119 B124:B125 B126:B127 B135:B144 B145:B153 B154:B155 C53:C54 C55:C56 C64:C73 C74:C82 C84:C85 C86:C87 C88:C89 C97:C106 C107:C115 C117:C119 C120:C121 C124:C125 C126:C127 C135:C144 C145:C153 C154:C155">
       <formula1>[6]DataList!#REF!</formula1>

--- a/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create_PCase_Positive_POE2.xlsx
+++ b/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create_PCase_Positive_POE2.xlsx
@@ -674,10 +674,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -705,6 +705,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -719,68 +726,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -795,9 +750,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -812,7 +805,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -826,23 +819,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -875,7 +875,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,7 +887,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,7 +989,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,31 +1013,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,49 +1031,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1007,55 +1049,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,21 +1129,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1154,6 +1139,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1175,18 +1169,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1206,26 +1193,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1237,130 +1237,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1805,8 +1805,8 @@
   <sheetPr/>
   <dimension ref="A1:H155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2788,7 +2788,7 @@
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>

--- a/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create_PCase_Positive_POE2.xlsx
+++ b/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create_PCase_Positive_POE2.xlsx
@@ -674,10 +674,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -705,14 +705,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,11 +726,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -750,8 +749,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,7 +834,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -775,74 +843,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -875,13 +875,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,31 +905,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,31 +929,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,7 +977,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,25 +995,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,37 +1025,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,7 +1049,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,25 +1129,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1169,11 +1160,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1193,17 +1182,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1211,21 +1196,36 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1237,130 +1237,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1805,8 +1805,8 @@
   <sheetPr/>
   <dimension ref="A1:H155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2896,7 +2896,7 @@
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
       <c r="E56" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
@@ -3548,7 +3548,7 @@
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
@@ -4300,7 +4300,7 @@
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F127" s="9"/>
       <c r="G127" s="9"/>

--- a/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create_PCase_Positive_POE2.xlsx
+++ b/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create_PCase_Positive_POE2.xlsx
@@ -1,37 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\fipsar_automation\QA\testcases\LLS\Pharmacy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2F7D91-79D1-4FB0-80B1-82C06A2D31CA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="DataList" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Rewards" type="5" background="1" refreshedVersion="2" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Rewards" type="5" refreshedVersion="2" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;Password=&quot;&quot;;User ID=Admin;Data Source=C:\Framework\testcase\Crowd\Rewards.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Database Password=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False" command="DataList$" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="212">
   <si>
     <t>Step No</t>
   </si>
@@ -261,9 +267,6 @@
     <t>SelectByVisibleText</t>
   </si>
   <si>
-    <t>SEARCH_PROV_STATE</t>
-  </si>
-  <si>
     <t>Alabama</t>
   </si>
   <si>
@@ -667,19 +670,16 @@
   </si>
   <si>
     <t>SikuliClick</t>
+  </si>
+  <si>
+    <t>PATIENT_STATE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -703,152 +703,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -863,204 +719,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor theme="4" tint="0.799951170384838"/>
+        <fgColor theme="4" tint="0.79992065187536243"/>
+        <bgColor theme="4" tint="0.79992065187536243"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor theme="4" tint="0.79995117038483843"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1070,29 +740,29 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.399853511154515"/>
+        <color theme="4" tint="0.39982299264503923"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.399853511154515"/>
+        <color theme="4" tint="0.39982299264503923"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.399853511154515"/>
+        <color theme="4" tint="0.39982299264503923"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399853511154515"/>
+        <color theme="4" tint="0.39982299264503923"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1100,10 +770,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1111,258 +781,16 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1377,68 +805,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Xpath"/>
@@ -1453,7 +837,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1468,7 +852,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1483,7 +867,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1498,7 +882,22 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="DataList"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1512,34 +911,19 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="DataList"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:A13" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:A13" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" name="LocateBy"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="LocateBy"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="C1:C101" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="C1:C101" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" name="Actions"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Actions"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1797,29 +1181,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.57142857142857" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.2857142857143" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.42857142857143" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.1428571428571" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.4285714285714" style="4" customWidth="1"/>
-    <col min="6" max="6" width="87.7142857142857" style="4" customWidth="1"/>
-    <col min="7" max="7" width="33.2857142857143" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.7142857142857" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.85714285714286" style="4"/>
+    <col min="1" max="1" width="8.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="87.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2656,7 +2040,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" s="4" customFormat="1" spans="1:8">
+    <row r="44" spans="1:8">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -2680,7 +2064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" s="4" customFormat="1" spans="1:8">
+    <row r="45" spans="1:8">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -2702,7 +2086,7 @@
       </c>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" s="4" customFormat="1" spans="1:8">
+    <row r="46" spans="1:8">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -2718,7 +2102,7 @@
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" s="4" customFormat="1" spans="1:8">
+    <row r="47" spans="1:8">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -2740,7 +2124,7 @@
       </c>
       <c r="H47" s="8"/>
     </row>
-    <row r="48" s="4" customFormat="1" spans="1:8">
+    <row r="48" spans="1:8">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -2756,7 +2140,7 @@
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" s="4" customFormat="1" spans="1:8">
+    <row r="49" spans="1:8">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -2778,7 +2162,7 @@
       </c>
       <c r="H49" s="8"/>
     </row>
-    <row r="50" s="4" customFormat="1" spans="1:8">
+    <row r="50" spans="1:8">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -2794,7 +2178,7 @@
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" s="4" customFormat="1" spans="1:8">
+    <row r="51" spans="1:8">
       <c r="A51" s="7">
         <v>50</v>
       </c>
@@ -2816,7 +2200,7 @@
       </c>
       <c r="H51" s="8"/>
     </row>
-    <row r="52" s="4" customFormat="1" spans="1:8">
+    <row r="52" spans="1:8">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -2832,7 +2216,7 @@
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" s="4" customFormat="1" spans="1:8">
+    <row r="53" spans="1:8">
       <c r="A53" s="7">
         <v>52</v>
       </c>
@@ -2852,7 +2236,7 @@
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
     </row>
-    <row r="54" s="4" customFormat="1" spans="1:8">
+    <row r="54" spans="1:8">
       <c r="A54" s="7">
         <v>53</v>
       </c>
@@ -2868,7 +2252,7 @@
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
     </row>
-    <row r="55" s="4" customFormat="1" spans="1:8">
+    <row r="55" spans="1:8">
       <c r="A55" s="7">
         <v>54</v>
       </c>
@@ -2886,7 +2270,7 @@
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
     </row>
-    <row r="56" s="4" customFormat="1" spans="1:8">
+    <row r="56" spans="1:8">
       <c r="A56" s="7">
         <v>55</v>
       </c>
@@ -2902,7 +2286,7 @@
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
     </row>
-    <row r="57" s="4" customFormat="1" spans="1:8">
+    <row r="57" spans="1:8">
       <c r="A57" s="7">
         <v>56</v>
       </c>
@@ -2913,20 +2297,20 @@
         <v>21</v>
       </c>
       <c r="D57" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E57" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="F57" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="G57" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G57" s="9" t="s">
-        <v>79</v>
-      </c>
       <c r="H57" s="9"/>
     </row>
-    <row r="58" s="4" customFormat="1" spans="1:8">
+    <row r="58" spans="1:8">
       <c r="A58" s="7">
         <v>57</v>
       </c>
@@ -2937,20 +2321,20 @@
         <v>15</v>
       </c>
       <c r="D58" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E58" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="F58" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="G58" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="G58" s="10" t="s">
-        <v>83</v>
-      </c>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" s="4" customFormat="1" spans="1:8">
+    <row r="59" spans="1:8">
       <c r="A59" s="7">
         <v>58</v>
       </c>
@@ -2961,18 +2345,18 @@
         <v>15</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G59" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G59" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" s="4" customFormat="1" spans="1:8">
+    <row r="60" spans="1:8">
       <c r="A60" s="7">
         <v>59</v>
       </c>
@@ -2992,7 +2376,7 @@
       </c>
       <c r="H60" s="10"/>
     </row>
-    <row r="61" s="4" customFormat="1" spans="1:8">
+    <row r="61" spans="1:8">
       <c r="A61" s="7">
         <v>60</v>
       </c>
@@ -3003,18 +2387,18 @@
         <v>21</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G61" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G61" s="9" t="s">
-        <v>89</v>
-      </c>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" s="4" customFormat="1" spans="1:8">
+    <row r="62" spans="1:8">
       <c r="A62" s="7">
         <v>61</v>
       </c>
@@ -3025,18 +2409,18 @@
         <v>21</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G62" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G62" s="10" t="s">
-        <v>92</v>
-      </c>
       <c r="H62" s="10"/>
     </row>
-    <row r="63" s="4" customFormat="1" spans="1:8">
+    <row r="63" spans="1:8">
       <c r="A63" s="7">
         <v>62</v>
       </c>
@@ -3052,7 +2436,7 @@
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
     </row>
-    <row r="64" s="4" customFormat="1" spans="1:8">
+    <row r="64" spans="1:8">
       <c r="A64" s="7">
         <v>63</v>
       </c>
@@ -3070,7 +2454,7 @@
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
     </row>
-    <row r="65" s="4" customFormat="1" spans="1:8">
+    <row r="65" spans="1:8">
       <c r="A65" s="7">
         <v>64</v>
       </c>
@@ -3092,7 +2476,7 @@
       </c>
       <c r="H65" s="9"/>
     </row>
-    <row r="66" s="4" customFormat="1" spans="1:8">
+    <row r="66" spans="1:8">
       <c r="A66" s="7">
         <v>65</v>
       </c>
@@ -3110,7 +2494,7 @@
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" s="4" customFormat="1" spans="1:8">
+    <row r="67" spans="1:8">
       <c r="A67" s="7">
         <v>66</v>
       </c>
@@ -3132,7 +2516,7 @@
       </c>
       <c r="H67" s="9"/>
     </row>
-    <row r="68" s="4" customFormat="1" spans="1:8">
+    <row r="68" spans="1:8">
       <c r="A68" s="7">
         <v>67</v>
       </c>
@@ -3152,7 +2536,7 @@
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
     </row>
-    <row r="69" s="4" customFormat="1" spans="1:8">
+    <row r="69" spans="1:8">
       <c r="A69" s="7">
         <v>68</v>
       </c>
@@ -3174,7 +2558,7 @@
       </c>
       <c r="H69" s="9"/>
     </row>
-    <row r="70" s="4" customFormat="1" spans="1:8">
+    <row r="70" spans="1:8">
       <c r="A70" s="7">
         <v>69</v>
       </c>
@@ -3190,7 +2574,7 @@
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
     </row>
-    <row r="71" s="4" customFormat="1" spans="1:8">
+    <row r="71" spans="1:8">
       <c r="A71" s="7">
         <v>70</v>
       </c>
@@ -3210,7 +2594,7 @@
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
     </row>
-    <row r="72" s="4" customFormat="1" spans="1:8">
+    <row r="72" spans="1:8">
       <c r="A72" s="7">
         <v>71</v>
       </c>
@@ -3234,7 +2618,7 @@
       </c>
       <c r="H72" s="10"/>
     </row>
-    <row r="73" s="4" customFormat="1" spans="1:8">
+    <row r="73" spans="1:8">
       <c r="A73" s="7">
         <v>72</v>
       </c>
@@ -3256,7 +2640,7 @@
       </c>
       <c r="H73" s="9"/>
     </row>
-    <row r="74" s="4" customFormat="1" spans="1:8">
+    <row r="74" spans="1:8">
       <c r="A74" s="7">
         <v>73</v>
       </c>
@@ -3272,7 +2656,7 @@
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
     </row>
-    <row r="75" s="4" customFormat="1" spans="1:8">
+    <row r="75" spans="1:8">
       <c r="A75" s="7">
         <v>74</v>
       </c>
@@ -3290,7 +2674,7 @@
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
     </row>
-    <row r="76" s="4" customFormat="1" spans="1:8">
+    <row r="76" spans="1:8">
       <c r="A76" s="7">
         <v>75</v>
       </c>
@@ -3310,7 +2694,7 @@
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
     </row>
-    <row r="77" s="4" customFormat="1" spans="1:8">
+    <row r="77" spans="1:8">
       <c r="A77" s="7">
         <v>76</v>
       </c>
@@ -3328,7 +2712,7 @@
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
     </row>
-    <row r="78" s="4" customFormat="1" spans="1:8">
+    <row r="78" spans="1:8">
       <c r="A78" s="7">
         <v>77</v>
       </c>
@@ -3344,7 +2728,7 @@
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
     </row>
-    <row r="79" s="4" customFormat="1" spans="1:8">
+    <row r="79" spans="1:8">
       <c r="A79" s="7">
         <v>78</v>
       </c>
@@ -3362,7 +2746,7 @@
       </c>
       <c r="H79" s="9"/>
     </row>
-    <row r="80" s="4" customFormat="1" spans="1:8">
+    <row r="80" spans="1:8">
       <c r="A80" s="7">
         <v>79</v>
       </c>
@@ -3378,7 +2762,7 @@
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
     </row>
-    <row r="81" s="4" customFormat="1" spans="1:8">
+    <row r="81" spans="1:8">
       <c r="A81" s="7">
         <v>80</v>
       </c>
@@ -3400,7 +2784,7 @@
       </c>
       <c r="H81" s="9"/>
     </row>
-    <row r="82" s="4" customFormat="1" spans="1:8">
+    <row r="82" spans="1:8">
       <c r="A82" s="7">
         <v>81</v>
       </c>
@@ -3422,7 +2806,7 @@
       </c>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" s="4" customFormat="1" spans="1:8">
+    <row r="83" spans="1:8">
       <c r="A83" s="7">
         <v>82</v>
       </c>
@@ -3444,7 +2828,7 @@
       </c>
       <c r="H83" s="9"/>
     </row>
-    <row r="84" s="4" customFormat="1" spans="1:8">
+    <row r="84" spans="1:8">
       <c r="A84" s="7">
         <v>83</v>
       </c>
@@ -3460,7 +2844,7 @@
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
     </row>
-    <row r="85" s="4" customFormat="1" spans="1:8">
+    <row r="85" spans="1:8">
       <c r="A85" s="7">
         <v>84</v>
       </c>
@@ -3471,20 +2855,20 @@
         <v>21</v>
       </c>
       <c r="D85" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E85" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E85" s="9" t="s">
+      <c r="F85" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F85" s="9" t="s">
+      <c r="G85" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="G85" s="9" t="s">
-        <v>96</v>
-      </c>
       <c r="H85" s="9"/>
     </row>
-    <row r="86" s="4" customFormat="1" spans="1:8">
+    <row r="86" spans="1:8">
       <c r="A86" s="7">
         <v>85</v>
       </c>
@@ -3499,12 +2883,12 @@
       </c>
       <c r="E86" s="10"/>
       <c r="F86" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
     </row>
-    <row r="87" s="4" customFormat="1" spans="1:8">
+    <row r="87" spans="1:8">
       <c r="A87" s="7">
         <v>86</v>
       </c>
@@ -3520,7 +2904,7 @@
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
     </row>
-    <row r="88" s="4" customFormat="1" spans="1:8">
+    <row r="88" spans="1:8">
       <c r="A88" s="7">
         <v>87</v>
       </c>
@@ -3538,7 +2922,7 @@
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
     </row>
-    <row r="89" s="4" customFormat="1" spans="1:8">
+    <row r="89" spans="1:8">
       <c r="A89" s="7">
         <v>88</v>
       </c>
@@ -3554,7 +2938,7 @@
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
     </row>
-    <row r="90" s="4" customFormat="1" spans="1:8">
+    <row r="90" spans="1:8">
       <c r="A90" s="7">
         <v>89</v>
       </c>
@@ -3565,20 +2949,20 @@
         <v>21</v>
       </c>
       <c r="D90" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E90" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E90" s="10" t="s">
+      <c r="F90" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F90" s="10" t="s">
+      <c r="G90" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="G90" s="10" t="s">
-        <v>79</v>
-      </c>
       <c r="H90" s="10"/>
     </row>
-    <row r="91" s="4" customFormat="1" spans="1:8">
+    <row r="91" spans="1:8">
       <c r="A91" s="7">
         <v>90</v>
       </c>
@@ -3589,20 +2973,20 @@
         <v>15</v>
       </c>
       <c r="D91" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E91" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E91" s="9" t="s">
+      <c r="F91" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F91" s="9" t="s">
+      <c r="G91" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G91" s="9" t="s">
-        <v>83</v>
-      </c>
       <c r="H91" s="9"/>
     </row>
-    <row r="92" s="4" customFormat="1" spans="1:8">
+    <row r="92" spans="1:8">
       <c r="A92" s="7">
         <v>91</v>
       </c>
@@ -3613,18 +2997,18 @@
         <v>15</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E92" s="10"/>
       <c r="F92" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G92" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G92" s="10" t="s">
-        <v>86</v>
-      </c>
       <c r="H92" s="10"/>
     </row>
-    <row r="93" s="4" customFormat="1" spans="1:8">
+    <row r="93" spans="1:8">
       <c r="A93" s="7">
         <v>92</v>
       </c>
@@ -3644,7 +3028,7 @@
       </c>
       <c r="H93" s="9"/>
     </row>
-    <row r="94" s="4" customFormat="1" spans="1:8">
+    <row r="94" spans="1:8">
       <c r="A94" s="7">
         <v>93</v>
       </c>
@@ -3655,18 +3039,18 @@
         <v>21</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E94" s="10"/>
       <c r="F94" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G94" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G94" s="10" t="s">
-        <v>89</v>
-      </c>
       <c r="H94" s="10"/>
     </row>
-    <row r="95" s="4" customFormat="1" spans="1:8">
+    <row r="95" spans="1:8">
       <c r="A95" s="7">
         <v>94</v>
       </c>
@@ -3677,18 +3061,18 @@
         <v>21</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G95" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G95" s="9" t="s">
-        <v>92</v>
-      </c>
       <c r="H95" s="9"/>
     </row>
-    <row r="96" s="4" customFormat="1" spans="1:8">
+    <row r="96" spans="1:8">
       <c r="A96" s="7">
         <v>95</v>
       </c>
@@ -3704,7 +3088,7 @@
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
     </row>
-    <row r="97" s="4" customFormat="1" spans="1:8">
+    <row r="97" spans="1:8">
       <c r="A97" s="7">
         <v>96</v>
       </c>
@@ -3722,7 +3106,7 @@
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
     </row>
-    <row r="98" s="4" customFormat="1" spans="1:8">
+    <row r="98" spans="1:8">
       <c r="A98" s="7">
         <v>97</v>
       </c>
@@ -3744,7 +3128,7 @@
       </c>
       <c r="H98" s="10"/>
     </row>
-    <row r="99" s="4" customFormat="1" spans="1:8">
+    <row r="99" spans="1:8">
       <c r="A99" s="7">
         <v>98</v>
       </c>
@@ -3762,7 +3146,7 @@
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
     </row>
-    <row r="100" s="4" customFormat="1" spans="1:8">
+    <row r="100" spans="1:8">
       <c r="A100" s="7">
         <v>99</v>
       </c>
@@ -3784,7 +3168,7 @@
       </c>
       <c r="H100" s="10"/>
     </row>
-    <row r="101" s="4" customFormat="1" spans="1:8">
+    <row r="101" spans="1:8">
       <c r="A101" s="7">
         <v>100</v>
       </c>
@@ -3804,7 +3188,7 @@
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
     </row>
-    <row r="102" s="4" customFormat="1" spans="1:8">
+    <row r="102" spans="1:8">
       <c r="A102" s="7">
         <v>101</v>
       </c>
@@ -3826,7 +3210,7 @@
       </c>
       <c r="H102" s="10"/>
     </row>
-    <row r="103" s="4" customFormat="1" spans="1:8">
+    <row r="103" spans="1:8">
       <c r="A103" s="7">
         <v>102</v>
       </c>
@@ -3842,7 +3226,7 @@
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
     </row>
-    <row r="104" s="4" customFormat="1" spans="1:8">
+    <row r="104" spans="1:8">
       <c r="A104" s="7">
         <v>103</v>
       </c>
@@ -3862,7 +3246,7 @@
       <c r="G104" s="10"/>
       <c r="H104" s="10"/>
     </row>
-    <row r="105" s="4" customFormat="1" spans="1:8">
+    <row r="105" spans="1:8">
       <c r="A105" s="7">
         <v>104</v>
       </c>
@@ -3886,7 +3270,7 @@
       </c>
       <c r="H105" s="9"/>
     </row>
-    <row r="106" s="4" customFormat="1" spans="1:8">
+    <row r="106" spans="1:8">
       <c r="A106" s="7">
         <v>105</v>
       </c>
@@ -3908,7 +3292,7 @@
       </c>
       <c r="H106" s="10"/>
     </row>
-    <row r="107" s="4" customFormat="1" spans="1:8">
+    <row r="107" spans="1:8">
       <c r="A107" s="7">
         <v>106</v>
       </c>
@@ -3924,7 +3308,7 @@
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
     </row>
-    <row r="108" s="4" customFormat="1" spans="1:8">
+    <row r="108" spans="1:8">
       <c r="A108" s="7">
         <v>107</v>
       </c>
@@ -3942,7 +3326,7 @@
       <c r="G108" s="10"/>
       <c r="H108" s="10"/>
     </row>
-    <row r="109" s="4" customFormat="1" spans="1:8">
+    <row r="109" spans="1:8">
       <c r="A109" s="7">
         <v>108</v>
       </c>
@@ -3962,7 +3346,7 @@
       <c r="G109" s="9"/>
       <c r="H109" s="9"/>
     </row>
-    <row r="110" s="4" customFormat="1" spans="1:8">
+    <row r="110" spans="1:8">
       <c r="A110" s="7">
         <v>109</v>
       </c>
@@ -3980,7 +3364,7 @@
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
     </row>
-    <row r="111" s="4" customFormat="1" spans="1:8">
+    <row r="111" spans="1:8">
       <c r="A111" s="7">
         <v>110</v>
       </c>
@@ -3996,7 +3380,7 @@
       <c r="G111" s="9"/>
       <c r="H111" s="9"/>
     </row>
-    <row r="112" s="4" customFormat="1" spans="1:8">
+    <row r="112" spans="1:8">
       <c r="A112" s="7">
         <v>111</v>
       </c>
@@ -4014,7 +3398,7 @@
       </c>
       <c r="H112" s="10"/>
     </row>
-    <row r="113" s="4" customFormat="1" spans="1:8">
+    <row r="113" spans="1:8">
       <c r="A113" s="7">
         <v>112</v>
       </c>
@@ -4030,7 +3414,7 @@
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
     </row>
-    <row r="114" s="4" customFormat="1" spans="1:8">
+    <row r="114" spans="1:8">
       <c r="A114" s="7">
         <v>113</v>
       </c>
@@ -4052,7 +3436,7 @@
       </c>
       <c r="H114" s="10"/>
     </row>
-    <row r="115" s="4" customFormat="1" spans="1:8">
+    <row r="115" spans="1:8">
       <c r="A115" s="7">
         <v>114</v>
       </c>
@@ -4074,7 +3458,7 @@
       </c>
       <c r="H115" s="9"/>
     </row>
-    <row r="116" s="4" customFormat="1" spans="1:8">
+    <row r="116" spans="1:8">
       <c r="A116" s="7">
         <v>115</v>
       </c>
@@ -4096,7 +3480,7 @@
       </c>
       <c r="H116" s="10"/>
     </row>
-    <row r="117" s="4" customFormat="1" spans="1:8">
+    <row r="117" spans="1:8">
       <c r="A117" s="7">
         <v>116</v>
       </c>
@@ -4112,7 +3496,7 @@
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
     </row>
-    <row r="118" s="4" customFormat="1" spans="1:8">
+    <row r="118" spans="1:8">
       <c r="A118" s="7">
         <v>117</v>
       </c>
@@ -4123,20 +3507,20 @@
         <v>21</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E118" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F118" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F118" s="10" t="s">
-        <v>99</v>
-      </c>
       <c r="G118" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H118" s="10"/>
     </row>
-    <row r="119" s="4" customFormat="1" spans="1:8">
+    <row r="119" spans="1:8">
       <c r="A119" s="7">
         <v>118</v>
       </c>
@@ -4147,16 +3531,16 @@
         <v>15</v>
       </c>
       <c r="D119" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E119" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="F119" s="9"/>
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
     </row>
-    <row r="120" s="4" customFormat="1" spans="1:8">
+    <row r="120" spans="1:8">
       <c r="A120" s="7">
         <v>119</v>
       </c>
@@ -4167,16 +3551,16 @@
         <v>15</v>
       </c>
       <c r="D120" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E120" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="E120" s="10" t="s">
-        <v>103</v>
       </c>
       <c r="F120" s="10"/>
       <c r="G120" s="10"/>
       <c r="H120" s="10"/>
     </row>
-    <row r="121" s="4" customFormat="1" spans="1:8">
+    <row r="121" spans="1:8">
       <c r="A121" s="7">
         <v>120</v>
       </c>
@@ -4187,27 +3571,27 @@
         <v>15</v>
       </c>
       <c r="D121" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E121" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="E121" s="9" t="s">
-        <v>105</v>
       </c>
       <c r="F121" s="9"/>
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
     </row>
-    <row r="122" s="4" customFormat="1" spans="1:8">
+    <row r="122" spans="1:8">
       <c r="A122" s="7">
         <v>121</v>
       </c>
       <c r="B122" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D122" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>107</v>
       </c>
       <c r="E122" s="10">
         <v>2</v>
@@ -4216,18 +3600,18 @@
       <c r="G122" s="10"/>
       <c r="H122" s="10"/>
     </row>
-    <row r="123" s="4" customFormat="1" spans="1:8">
+    <row r="123" spans="1:8">
       <c r="A123" s="7">
         <v>122</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C123" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E123" s="9">
         <v>10002</v>
@@ -4236,7 +3620,7 @@
       <c r="G123" s="9"/>
       <c r="H123" s="9"/>
     </row>
-    <row r="124" s="4" customFormat="1" spans="1:8">
+    <row r="124" spans="1:8">
       <c r="A124" s="7">
         <v>123</v>
       </c>
@@ -4256,7 +3640,7 @@
       <c r="G124" s="10"/>
       <c r="H124" s="10"/>
     </row>
-    <row r="125" s="4" customFormat="1" spans="1:8">
+    <row r="125" spans="1:8">
       <c r="A125" s="7">
         <v>124</v>
       </c>
@@ -4272,7 +3656,7 @@
       <c r="G125" s="9"/>
       <c r="H125" s="9"/>
     </row>
-    <row r="126" s="4" customFormat="1" spans="1:8">
+    <row r="126" spans="1:8">
       <c r="A126" s="7">
         <v>125</v>
       </c>
@@ -4290,7 +3674,7 @@
       <c r="G126" s="10"/>
       <c r="H126" s="10"/>
     </row>
-    <row r="127" s="4" customFormat="1" spans="1:8">
+    <row r="127" spans="1:8">
       <c r="A127" s="7">
         <v>126</v>
       </c>
@@ -4306,7 +3690,7 @@
       <c r="G127" s="9"/>
       <c r="H127" s="9"/>
     </row>
-    <row r="128" s="4" customFormat="1" spans="1:8">
+    <row r="128" spans="1:8">
       <c r="A128" s="7">
         <v>127</v>
       </c>
@@ -4317,20 +3701,20 @@
         <v>21</v>
       </c>
       <c r="D128" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E128" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E128" s="10" t="s">
+      <c r="F128" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F128" s="10" t="s">
+      <c r="G128" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="G128" s="10" t="s">
-        <v>79</v>
-      </c>
       <c r="H128" s="10"/>
     </row>
-    <row r="129" s="4" customFormat="1" spans="1:8">
+    <row r="129" spans="1:8">
       <c r="A129" s="7">
         <v>128</v>
       </c>
@@ -4341,20 +3725,20 @@
         <v>15</v>
       </c>
       <c r="D129" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E129" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E129" s="9" t="s">
+      <c r="F129" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F129" s="9" t="s">
+      <c r="G129" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G129" s="9" t="s">
-        <v>83</v>
-      </c>
       <c r="H129" s="9"/>
     </row>
-    <row r="130" s="4" customFormat="1" spans="1:8">
+    <row r="130" spans="1:8">
       <c r="A130" s="7">
         <v>129</v>
       </c>
@@ -4365,18 +3749,18 @@
         <v>15</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E130" s="10"/>
       <c r="F130" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G130" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G130" s="10" t="s">
-        <v>86</v>
-      </c>
       <c r="H130" s="10"/>
     </row>
-    <row r="131" s="4" customFormat="1" spans="1:8">
+    <row r="131" spans="1:8">
       <c r="A131" s="7">
         <v>130</v>
       </c>
@@ -4396,7 +3780,7 @@
       </c>
       <c r="H131" s="9"/>
     </row>
-    <row r="132" s="4" customFormat="1" spans="1:8">
+    <row r="132" spans="1:8">
       <c r="A132" s="7">
         <v>131</v>
       </c>
@@ -4407,18 +3791,18 @@
         <v>21</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E132" s="10"/>
       <c r="F132" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G132" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G132" s="10" t="s">
-        <v>89</v>
-      </c>
       <c r="H132" s="10"/>
     </row>
-    <row r="133" s="4" customFormat="1" spans="1:8">
+    <row r="133" spans="1:8">
       <c r="A133" s="7">
         <v>132</v>
       </c>
@@ -4429,18 +3813,18 @@
         <v>21</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E133" s="9"/>
       <c r="F133" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G133" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G133" s="9" t="s">
-        <v>92</v>
-      </c>
       <c r="H133" s="9"/>
     </row>
-    <row r="134" s="4" customFormat="1" spans="1:8">
+    <row r="134" spans="1:8">
       <c r="A134" s="7">
         <v>133</v>
       </c>
@@ -4456,7 +3840,7 @@
       <c r="G134" s="10"/>
       <c r="H134" s="10"/>
     </row>
-    <row r="135" s="4" customFormat="1" spans="1:8">
+    <row r="135" spans="1:8">
       <c r="A135" s="7">
         <v>134</v>
       </c>
@@ -4474,7 +3858,7 @@
       <c r="G135" s="9"/>
       <c r="H135" s="9"/>
     </row>
-    <row r="136" s="4" customFormat="1" spans="1:8">
+    <row r="136" spans="1:8">
       <c r="A136" s="7">
         <v>135</v>
       </c>
@@ -4496,7 +3880,7 @@
       </c>
       <c r="H136" s="10"/>
     </row>
-    <row r="137" s="4" customFormat="1" spans="1:8">
+    <row r="137" spans="1:8">
       <c r="A137" s="7">
         <v>136</v>
       </c>
@@ -4514,7 +3898,7 @@
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
     </row>
-    <row r="138" s="4" customFormat="1" spans="1:8">
+    <row r="138" spans="1:8">
       <c r="A138" s="7">
         <v>137</v>
       </c>
@@ -4536,7 +3920,7 @@
       </c>
       <c r="H138" s="10"/>
     </row>
-    <row r="139" s="4" customFormat="1" spans="1:8">
+    <row r="139" spans="1:8">
       <c r="A139" s="7">
         <v>138</v>
       </c>
@@ -4556,7 +3940,7 @@
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
     </row>
-    <row r="140" s="4" customFormat="1" spans="1:8">
+    <row r="140" spans="1:8">
       <c r="A140" s="7">
         <v>139</v>
       </c>
@@ -4578,7 +3962,7 @@
       </c>
       <c r="H140" s="10"/>
     </row>
-    <row r="141" s="4" customFormat="1" spans="1:8">
+    <row r="141" spans="1:8">
       <c r="A141" s="7">
         <v>140</v>
       </c>
@@ -4594,7 +3978,7 @@
       <c r="G141" s="9"/>
       <c r="H141" s="9"/>
     </row>
-    <row r="142" s="4" customFormat="1" spans="1:8">
+    <row r="142" spans="1:8">
       <c r="A142" s="7">
         <v>141</v>
       </c>
@@ -4614,7 +3998,7 @@
       <c r="G142" s="10"/>
       <c r="H142" s="10"/>
     </row>
-    <row r="143" s="4" customFormat="1" spans="1:8">
+    <row r="143" spans="1:8">
       <c r="A143" s="7">
         <v>142</v>
       </c>
@@ -4638,7 +4022,7 @@
       </c>
       <c r="H143" s="9"/>
     </row>
-    <row r="144" s="4" customFormat="1" spans="1:8">
+    <row r="144" spans="1:8">
       <c r="A144" s="7">
         <v>143</v>
       </c>
@@ -4660,7 +4044,7 @@
       </c>
       <c r="H144" s="10"/>
     </row>
-    <row r="145" s="4" customFormat="1" spans="1:8">
+    <row r="145" spans="1:8">
       <c r="A145" s="7">
         <v>144</v>
       </c>
@@ -4676,7 +4060,7 @@
       <c r="G145" s="9"/>
       <c r="H145" s="9"/>
     </row>
-    <row r="146" s="4" customFormat="1" spans="1:8">
+    <row r="146" spans="1:8">
       <c r="A146" s="7">
         <v>145</v>
       </c>
@@ -4694,7 +4078,7 @@
       <c r="G146" s="10"/>
       <c r="H146" s="10"/>
     </row>
-    <row r="147" s="4" customFormat="1" spans="1:8">
+    <row r="147" spans="1:8">
       <c r="A147" s="7">
         <v>146</v>
       </c>
@@ -4714,7 +4098,7 @@
       <c r="G147" s="9"/>
       <c r="H147" s="9"/>
     </row>
-    <row r="148" s="4" customFormat="1" spans="1:8">
+    <row r="148" spans="1:8">
       <c r="A148" s="7">
         <v>147</v>
       </c>
@@ -4732,7 +4116,7 @@
       <c r="G148" s="10"/>
       <c r="H148" s="10"/>
     </row>
-    <row r="149" s="4" customFormat="1" spans="1:8">
+    <row r="149" spans="1:8">
       <c r="A149" s="7">
         <v>148</v>
       </c>
@@ -4748,7 +4132,7 @@
       <c r="G149" s="9"/>
       <c r="H149" s="9"/>
     </row>
-    <row r="150" s="4" customFormat="1" spans="1:8">
+    <row r="150" spans="1:8">
       <c r="A150" s="7">
         <v>149</v>
       </c>
@@ -4766,7 +4150,7 @@
       </c>
       <c r="H150" s="10"/>
     </row>
-    <row r="151" s="4" customFormat="1" spans="1:8">
+    <row r="151" spans="1:8">
       <c r="A151" s="7">
         <v>150</v>
       </c>
@@ -4782,7 +4166,7 @@
       <c r="G151" s="9"/>
       <c r="H151" s="9"/>
     </row>
-    <row r="152" s="4" customFormat="1" spans="1:8">
+    <row r="152" spans="1:8">
       <c r="A152" s="7">
         <v>151</v>
       </c>
@@ -4804,7 +4188,7 @@
       </c>
       <c r="H152" s="10"/>
     </row>
-    <row r="153" s="4" customFormat="1" spans="1:8">
+    <row r="153" spans="1:8">
       <c r="A153" s="7">
         <v>152</v>
       </c>
@@ -4826,7 +4210,7 @@
       </c>
       <c r="H153" s="9"/>
     </row>
-    <row r="154" s="4" customFormat="1" spans="1:8">
+    <row r="154" spans="1:8">
       <c r="A154" s="7">
         <v>153</v>
       </c>
@@ -4837,18 +4221,18 @@
         <v>21</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E154" s="9"/>
       <c r="F154" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G154" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G154" s="9" t="s">
-        <v>112</v>
-      </c>
       <c r="H154" s="9"/>
     </row>
-    <row r="155" s="4" customFormat="1" spans="1:8">
+    <row r="155" spans="1:8">
       <c r="A155" s="7">
         <v>154</v>
       </c>
@@ -4865,288 +4249,308 @@
       <c r="H155" s="10"/>
     </row>
   </sheetData>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 B4 B7 B44 B47 C2:C3">
-      <formula1/>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
-      <formula1>[1]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C44 C45 C46 B5:B6 B45:B46">
-      <formula1>[3]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8 B48 B9:B12 B13:B31 B49:B52">
-      <formula1>[2]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32 C32 B33 C33 B34:B35 B36:B38 B40:B43 C34:C35 C36:C43">
-      <formula1>[4]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83 C83 B84 B85 B116 C116 B117 B120 B121 B122 C122 B123 C123 B53:B54 B55:B56 B64:B73 B74:B82 B86:B87 B88:B89 B97:B106 B107:B115 B118:B119 B124:B125 B126:B127 B135:B144 B145:B153 B154:B155 C53:C54 C55:C56 C64:C73 C74:C82 C84:C85 C86:C87 C88:C89 C97:C106 C107:C115 C117:C119 C120:C121 C124:C125 C126:C127 C135:C144 C145:C153 C154:C155">
-      <formula1>[6]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B57:B63 B90:B96 B128:B134">
-      <formula1>[5]DataList!#REF!</formula1>
-    </dataValidation>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 B4 B7 B44 B47 C2:C3" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+          <x14:formula1>
+            <xm:f>'C:\workspace\qa-automation\qa-automation\Zillion\testcases\Quick Start\Enrollment\[QS_Enrollment_EmailAndPasswordPageFieldValidations.xlsx]DataList'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+          <x14:formula1>
+            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\LLS\Pharmacy\[Phar_Patient_App_ViewIncomplete -ok.xlsx]DataList'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C4 C5 C6 C44 C45 C46 B5:B6 B45:B46</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+          <x14:formula1>
+            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\Patient\[PatientApp_Process_Positive_PCase_Yes.xlsx]DataList'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B8 B48 B9:B12 B13:B31 B49:B52</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
+          <x14:formula1>
+            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\LLS\Pharmacy\[L_Phar_Patient_App_Create__DCase_Pending_Positive - Copy.xlsx]DataList'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B32 C32 B33 C33 B34:B35 B36:B38 B40:B43 C34:C35 C36:C43</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
+          <x14:formula1>
+            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\CPR\Pharmacy\[Phar_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx]DataList'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B83 C83 B84 B85 B116 C116 B117 B120 B121 B122 C122 B123 C123 B53:B54 B55:B56 B64:B73 B74:B82 B86:B87 B88:B89 B97:B106 B107:B115 B118:B119 B124:B125 B126:B127 B135:B144 B145:B153 B154:B155 C53:C54 C55:C56 C64:C73 C74:C82 C84:C85 C86:C87 C88:C89 C97:C106 C107:C115 C117:C119 C120:C121 C124:C125 C126:C127 C135:C144 C145:C153 C154:C155</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
+          <x14:formula1>
+            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\CPR\Patient\[PatientApp_Process_Pending_DCase.xlsx]DataList'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B57:B63 B90:B96 B128:B134</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="52.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="13.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>115</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>117</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
         <v>119</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>121</v>
       </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
         <v>122</v>
-      </c>
-      <c r="C8" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
         <v>127</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
         <v>129</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
-      <c r="C12" t="s">
+    <row r="13" spans="1:4">
+      <c r="C13" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
-      <c r="C13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="1:4">
       <c r="C14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
+    <row r="15" spans="1:4">
       <c r="C15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="C16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
       <c r="C17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:4">
       <c r="C18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
-      <c r="C19" t="s">
+    <row r="20" spans="3:4">
+      <c r="C20" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
-      <c r="C20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="3:4">
       <c r="C21" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="3:4">
       <c r="C22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" t="s">
         <v>138</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
-      <c r="C25" t="s">
+    <row r="26" spans="3:4">
+      <c r="C26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="3:3">
-      <c r="C26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
+    <row r="28" spans="3:4">
       <c r="C28" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="3:4">
       <c r="C29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="3:3">
-      <c r="C30" t="s">
+    <row r="31" spans="3:4">
+      <c r="C31" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="3:3">
-      <c r="C31" t="s">
+    <row r="32" spans="3:4">
+      <c r="C32" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3">
-      <c r="C32" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="3:3">
@@ -5156,289 +4560,289 @@
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4">
+      <c r="C65" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
-      <c r="C65" t="s">
+    <row r="66" spans="3:4">
+      <c r="C66" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="66" spans="3:3">
-      <c r="C66" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="67" spans="3:3">
+    <row r="67" spans="3:4">
       <c r="C67" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="3:3">
+    <row r="68" spans="3:4">
       <c r="C68" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4">
+      <c r="C69" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="69" spans="3:3">
-      <c r="C69" t="s">
+    <row r="70" spans="3:4">
+      <c r="C70" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3">
-      <c r="C70" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4">
+      <c r="C72" t="s">
         <v>182</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3">
-      <c r="C72" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4">
+      <c r="C74" t="s">
         <v>184</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3">
-      <c r="C74" t="s">
+    </row>
+    <row r="75" spans="3:4">
+      <c r="C75" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="75" spans="3:3">
-      <c r="C75" t="s">
+    <row r="76" spans="3:4">
+      <c r="C76" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="76" spans="3:3">
-      <c r="C76" t="s">
+    <row r="77" spans="3:4">
+      <c r="C77" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3">
-      <c r="C77" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4">
+      <c r="C80" t="s">
         <v>190</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3">
-      <c r="C80" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97" spans="3:3">
@@ -5448,33 +4852,32 @@
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$A$2:$A$12</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>

--- a/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create_PCase_Positive_POE2.xlsx
+++ b/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create_PCase_Positive_POE2.xlsx
@@ -1,43 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\fipsar_automation\QA\testcases\LLS\Pharmacy\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2F7D91-79D1-4FB0-80B1-82C06A2D31CA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28680" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="DataList" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Rewards" type="5" refreshedVersion="2" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Rewards" type="5" background="1" refreshedVersion="2" saveData="1">
     <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;Password=&quot;&quot;;User ID=Admin;Data Source=C:\Framework\testcase\Crowd\Rewards.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Database Password=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False" command="DataList$" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212">
   <si>
     <t>Step No</t>
   </si>
@@ -90,7 +84,7 @@
     <t>SSN_FIELD</t>
   </si>
   <si>
-    <t>101-14-2278</t>
+    <t>131-92-6794</t>
   </si>
   <si>
     <t>Enter SSN</t>
@@ -267,6 +261,9 @@
     <t>SelectByVisibleText</t>
   </si>
   <si>
+    <t>PATIENT_STATE</t>
+  </si>
+  <si>
     <t>Alabama</t>
   </si>
   <si>
@@ -670,16 +667,19 @@
   </si>
   <si>
     <t>SikuliClick</t>
-  </si>
-  <si>
-    <t>PATIENT_STATE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -703,8 +703,159 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -719,18 +870,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79992065187536243"/>
-        <bgColor theme="4" tint="0.79992065187536243"/>
+        <fgColor theme="4" tint="0.799920651875362"/>
+        <bgColor theme="4" tint="0.799920651875362"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
-        <bgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor theme="4" tint="0.799951170384838"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -740,29 +1083,29 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.39982299264503923"/>
+        <color theme="4" tint="0.399822992645039"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.39982299264503923"/>
+        <color theme="4" tint="0.399822992645039"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.39982299264503923"/>
+        <color theme="4" tint="0.399822992645039"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39982299264503923"/>
+        <color theme="4" tint="0.399822992645039"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
+        <color theme="4" tint="0.399914548173467"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
+        <color theme="4" tint="0.399914548173467"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
+        <color theme="4" tint="0.399914548173467"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,10 +1113,25 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
+        <color theme="4" tint="0.399914548173467"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
+        <color theme="4" tint="0.399914548173467"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB0B0B0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFB0B0B0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFB0B0B0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFB0B0B0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,18 +1139,260 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -802,27 +1402,74 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Xpath"/>
@@ -837,7 +1484,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -852,7 +1499,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -867,7 +1514,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -882,7 +1529,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -897,7 +1544,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -912,18 +1559,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:A13" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:A13" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="LocateBy"/>
+    <tableColumn id="1" name="LocateBy"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="C1:C101" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="C1:C101" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Actions"/>
+    <tableColumn id="1" name="Actions"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1181,29 +1828,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="87.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="33.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="8.57142857142857" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.2857142857143" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.42857142857143" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.1428571428571" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.4285714285714" style="4" customWidth="1"/>
+    <col min="6" max="6" width="87.7142857142857" style="4" customWidth="1"/>
+    <col min="7" max="7" width="33.2857142857143" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.7142857142857" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.85714285714286" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1250,7 +1897,7 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" ht="15.75" spans="1:8">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1270,7 +1917,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" ht="15.75" spans="1:8">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1283,7 +1930,7 @@
       <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -2220,2337 +2867,2317 @@
       <c r="A53" s="7">
         <v>52</v>
       </c>
-      <c r="B53" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="9" t="s">
+      <c r="B53" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9" t="s">
+      <c r="E53" s="10"/>
+      <c r="F53" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10">
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11">
         <v>3</v>
       </c>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="7">
         <v>54</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="9" t="s">
+      <c r="B55" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10">
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11">
         <v>3</v>
       </c>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="7">
         <v>56</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E57" s="9" t="s">
+      <c r="C57" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="E57" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="F57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="H57" s="9"/>
+      <c r="G57" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H57" s="10"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E58" s="10" t="s">
+      <c r="D58" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="E58" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="G58" s="10" t="s">
+      <c r="F58" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H58" s="10"/>
+      <c r="G58" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H58" s="11"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="7">
         <v>58</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C59" s="9" t="s">
+      <c r="B59" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9" t="s">
+      <c r="D59" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G59" s="9" t="s">
+      <c r="E59" s="10"/>
+      <c r="F59" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H59" s="9"/>
+      <c r="G59" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H59" s="10"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10">
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11">
         <v>4</v>
       </c>
-      <c r="F60" s="10" t="s">
+      <c r="F60" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G60" s="10" t="s">
+      <c r="G60" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H60" s="10"/>
+      <c r="H60" s="11"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="7">
         <v>60</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9" t="s">
+      <c r="B61" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G61" s="9" t="s">
+      <c r="E61" s="10"/>
+      <c r="F61" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="H61" s="9"/>
+      <c r="G61" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H61" s="10"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10" t="s">
+      <c r="B62" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G62" s="10" t="s">
+      <c r="E62" s="11"/>
+      <c r="F62" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="H62" s="10"/>
+      <c r="G62" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H62" s="11"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="7">
         <v>62</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9">
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10">
         <v>1</v>
       </c>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="10" t="s">
+      <c r="B64" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="7">
         <v>64</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D65" s="9" t="s">
+      <c r="B65" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9" t="s">
+      <c r="E65" s="10"/>
+      <c r="F65" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G65" s="9" t="s">
+      <c r="G65" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H65" s="9"/>
+      <c r="H65" s="10"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="7">
         <v>65</v>
       </c>
-      <c r="B66" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="10" t="s">
+      <c r="B66" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="7">
         <v>66</v>
       </c>
-      <c r="B67" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67" s="9" t="s">
+      <c r="B67" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9" t="s">
+      <c r="E67" s="10"/>
+      <c r="F67" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G67" s="9" t="s">
+      <c r="G67" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H67" s="9"/>
+      <c r="H67" s="10"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="7">
         <v>67</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C68" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D68" s="10" t="s">
+      <c r="C68" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E68" s="11">
         <v>200</v>
       </c>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="7">
         <v>68</v>
       </c>
-      <c r="B69" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D69" s="9" t="s">
+      <c r="B69" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9" t="s">
+      <c r="E69" s="10"/>
+      <c r="F69" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G69" s="9" t="s">
+      <c r="G69" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H69" s="9"/>
+      <c r="H69" s="10"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="7">
         <v>69</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10">
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11">
         <v>3</v>
       </c>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="7">
         <v>70</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="E71" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="7">
         <v>71</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C72" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72" s="10" t="s">
+      <c r="C72" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E72" s="10" t="s">
+      <c r="E72" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F72" s="10" t="s">
+      <c r="F72" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G72" s="10" t="s">
+      <c r="G72" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H72" s="10"/>
+      <c r="H72" s="11"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="7">
         <v>72</v>
       </c>
-      <c r="B73" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D73" s="9" t="s">
+      <c r="B73" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9" t="s">
+      <c r="E73" s="10"/>
+      <c r="F73" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G73" s="9" t="s">
+      <c r="G73" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H73" s="9"/>
+      <c r="H73" s="10"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="7">
         <v>73</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10">
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11">
         <v>2</v>
       </c>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="7">
         <v>74</v>
       </c>
-      <c r="B75" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="9" t="s">
+      <c r="B75" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="7">
         <v>75</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C76" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D76" s="10" t="s">
+      <c r="C76" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E76" s="10" t="s">
+      <c r="E76" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="7">
         <v>76</v>
       </c>
-      <c r="B77" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="9" t="s">
+      <c r="B77" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="7">
         <v>77</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10">
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11">
         <v>10</v>
       </c>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="7">
         <v>78</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9" t="s">
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G79" s="9" t="s">
+      <c r="G79" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H79" s="9"/>
+      <c r="H79" s="10"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="7">
         <v>79</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10">
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11">
         <v>10</v>
       </c>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="7">
         <v>80</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C81" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D81" s="9" t="s">
+      <c r="C81" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9" t="s">
+      <c r="E81" s="10"/>
+      <c r="F81" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G81" s="9" t="s">
+      <c r="G81" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H81" s="9"/>
+      <c r="H81" s="10"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="7">
         <v>81</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C82" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D82" s="10" t="s">
+      <c r="C82" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10" t="s">
+      <c r="E82" s="11"/>
+      <c r="F82" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G82" s="10" t="s">
+      <c r="G82" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H82" s="10"/>
+      <c r="H82" s="11"/>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="7">
         <v>82</v>
       </c>
-      <c r="B83" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D83" s="9" t="s">
+      <c r="B83" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9" t="s">
+      <c r="E83" s="10"/>
+      <c r="F83" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G83" s="9" t="s">
+      <c r="G83" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H83" s="9"/>
+      <c r="H83" s="10"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="7">
         <v>83</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10">
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11">
         <v>5</v>
       </c>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="7">
         <v>84</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C85" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E85" s="9" t="s">
+      <c r="C85" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F85" s="9" t="s">
+      <c r="E85" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G85" s="9" t="s">
+      <c r="F85" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="H85" s="9"/>
+      <c r="G85" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H85" s="10"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="7">
         <v>85</v>
       </c>
-      <c r="B86" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C86" s="10" t="s">
+      <c r="B86" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D86" s="10" t="s">
+      <c r="D86" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="7">
         <v>86</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9">
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10">
         <v>3</v>
       </c>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="7">
         <v>87</v>
       </c>
-      <c r="B88" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D88" s="10" t="s">
+      <c r="B88" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="7">
         <v>88</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9">
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10">
         <v>3</v>
       </c>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="9"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="7">
         <v>89</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C90" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="E90" s="10" t="s">
+      <c r="C90" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F90" s="10" t="s">
+      <c r="E90" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G90" s="10" t="s">
+      <c r="F90" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="H90" s="10"/>
+      <c r="G90" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H90" s="11"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="7">
         <v>90</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C91" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D91" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E91" s="9" t="s">
+      <c r="D91" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F91" s="9" t="s">
+      <c r="E91" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G91" s="9" t="s">
+      <c r="F91" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H91" s="9"/>
+      <c r="G91" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H91" s="10"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="7">
         <v>91</v>
       </c>
-      <c r="B92" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C92" s="10" t="s">
+      <c r="B92" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C92" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D92" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10" t="s">
+      <c r="D92" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G92" s="10" t="s">
+      <c r="E92" s="11"/>
+      <c r="F92" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="H92" s="10"/>
+      <c r="G92" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H92" s="11"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="7">
         <v>92</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9">
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10">
         <v>4</v>
       </c>
-      <c r="F93" s="9" t="s">
+      <c r="F93" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G93" s="9" t="s">
+      <c r="G93" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H93" s="9"/>
+      <c r="H93" s="10"/>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="7">
         <v>93</v>
       </c>
-      <c r="B94" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10" t="s">
+      <c r="B94" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G94" s="10" t="s">
+      <c r="E94" s="11"/>
+      <c r="F94" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H94" s="10"/>
+      <c r="G94" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H94" s="11"/>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="7">
         <v>94</v>
       </c>
-      <c r="B95" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9" t="s">
+      <c r="B95" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G95" s="9" t="s">
+      <c r="E95" s="10"/>
+      <c r="F95" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="H95" s="9"/>
+      <c r="G95" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H95" s="10"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="7">
         <v>95</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10">
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11">
         <v>1</v>
       </c>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="10"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="7">
         <v>96</v>
       </c>
-      <c r="B97" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D97" s="9" t="s">
+      <c r="B97" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="7">
         <v>97</v>
       </c>
-      <c r="B98" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D98" s="10" t="s">
+      <c r="B98" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10" t="s">
+      <c r="E98" s="11"/>
+      <c r="F98" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G98" s="10" t="s">
+      <c r="G98" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H98" s="10"/>
+      <c r="H98" s="11"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="7">
         <v>98</v>
       </c>
-      <c r="B99" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D99" s="9" t="s">
+      <c r="B99" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="7">
         <v>99</v>
       </c>
-      <c r="B100" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D100" s="10" t="s">
+      <c r="B100" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10" t="s">
+      <c r="E100" s="11"/>
+      <c r="F100" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G100" s="10" t="s">
+      <c r="G100" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H100" s="10"/>
+      <c r="H100" s="11"/>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="7">
         <v>100</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C101" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="9" t="s">
+      <c r="C101" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E101" s="9">
+      <c r="E101" s="10">
         <v>200</v>
       </c>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="9"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="7">
         <v>101</v>
       </c>
-      <c r="B102" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D102" s="10" t="s">
+      <c r="B102" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10" t="s">
+      <c r="E102" s="11"/>
+      <c r="F102" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G102" s="10" t="s">
+      <c r="G102" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H102" s="10"/>
+      <c r="H102" s="11"/>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="7">
         <v>102</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9">
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10">
         <v>3</v>
       </c>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="9"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="7">
         <v>103</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C104" s="10" t="s">
+      <c r="C104" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D104" s="10" t="s">
+      <c r="D104" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E104" s="10" t="s">
+      <c r="E104" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="10"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="7">
         <v>104</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C105" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D105" s="9" t="s">
+      <c r="C105" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E105" s="9" t="s">
+      <c r="E105" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F105" s="9" t="s">
+      <c r="F105" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G105" s="9" t="s">
+      <c r="G105" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H105" s="9"/>
+      <c r="H105" s="10"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="7">
         <v>105</v>
       </c>
-      <c r="B106" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D106" s="10" t="s">
+      <c r="B106" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10" t="s">
+      <c r="E106" s="11"/>
+      <c r="F106" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G106" s="10" t="s">
+      <c r="G106" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H106" s="10"/>
+      <c r="H106" s="11"/>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="7">
         <v>106</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9">
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10">
         <v>2</v>
       </c>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="7">
         <v>107</v>
       </c>
-      <c r="B108" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D108" s="10" t="s">
+      <c r="B108" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D108" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="10"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="7">
         <v>108</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C109" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D109" s="9" t="s">
+      <c r="C109" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D109" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E109" s="9" t="s">
+      <c r="E109" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="9"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="7">
         <v>109</v>
       </c>
-      <c r="B110" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D110" s="10" t="s">
+      <c r="B110" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D110" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="10"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="7">
         <v>110</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9">
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10">
         <v>10</v>
       </c>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="7">
         <v>111</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10" t="s">
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G112" s="10" t="s">
+      <c r="G112" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H112" s="10"/>
+      <c r="H112" s="11"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="7">
         <v>112</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9">
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10">
         <v>10</v>
       </c>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="9"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="7">
         <v>113</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B114" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C114" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D114" s="10" t="s">
+      <c r="C114" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D114" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10" t="s">
+      <c r="E114" s="11"/>
+      <c r="F114" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G114" s="10" t="s">
+      <c r="G114" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="H114" s="10"/>
+      <c r="H114" s="11"/>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="7">
         <v>114</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C115" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D115" s="9" t="s">
+      <c r="C115" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D115" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9" t="s">
+      <c r="E115" s="10"/>
+      <c r="F115" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G115" s="9" t="s">
+      <c r="G115" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H115" s="9"/>
+      <c r="H115" s="10"/>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="7">
         <v>115</v>
       </c>
-      <c r="B116" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D116" s="10" t="s">
+      <c r="B116" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D116" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E116" s="10"/>
-      <c r="F116" s="10" t="s">
+      <c r="E116" s="11"/>
+      <c r="F116" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G116" s="10" t="s">
+      <c r="G116" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H116" s="10"/>
+      <c r="H116" s="11"/>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="7">
         <v>116</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B117" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9">
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10">
         <v>5</v>
       </c>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="9"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="7">
         <v>117</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C118" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D118" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E118" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F118" s="10" t="s">
+      <c r="C118" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E118" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="G118" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H118" s="10"/>
+      <c r="F118" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G118" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H118" s="11"/>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="7">
         <v>118</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C119" s="9" t="s">
+      <c r="C119" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D119" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E119" s="9" t="s">
+      <c r="D119" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="9"/>
+      <c r="E119" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="10"/>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="7">
         <v>119</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B120" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C120" s="10" t="s">
+      <c r="C120" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D120" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E120" s="10" t="s">
+      <c r="D120" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F120" s="10"/>
-      <c r="G120" s="10"/>
-      <c r="H120" s="10"/>
+      <c r="E120" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="7">
         <v>120</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="C121" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D121" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E121" s="9" t="s">
+      <c r="D121" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="9"/>
+      <c r="E121" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="7">
         <v>121</v>
       </c>
-      <c r="B122" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D122" s="10" t="s">
+      <c r="B122" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E122" s="10">
+      <c r="C122" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E122" s="11">
         <v>2</v>
       </c>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
-      <c r="H122" s="10"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="7">
         <v>122</v>
       </c>
-      <c r="B123" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C123" s="9" t="s">
+      <c r="B123" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C123" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D123" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E123" s="9">
+      <c r="D123" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E123" s="10">
         <v>10002</v>
       </c>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="9"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="7">
         <v>123</v>
       </c>
-      <c r="B124" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C124" s="10" t="s">
+      <c r="B124" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C124" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D124" s="10" t="s">
+      <c r="D124" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10" t="s">
+      <c r="E124" s="11"/>
+      <c r="F124" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G124" s="10"/>
-      <c r="H124" s="10"/>
+      <c r="G124" s="11"/>
+      <c r="H124" s="11"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="7">
         <v>124</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9">
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10">
         <v>3</v>
       </c>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="9"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="7">
         <v>125</v>
       </c>
-      <c r="B126" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D126" s="10" t="s">
+      <c r="B126" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D126" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E126" s="10"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
-      <c r="H126" s="10"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="11"/>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="7">
         <v>126</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9">
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10">
         <v>3</v>
       </c>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="9"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="7">
         <v>127</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B128" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C128" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="E128" s="10" t="s">
+      <c r="C128" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D128" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F128" s="10" t="s">
+      <c r="E128" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G128" s="10" t="s">
+      <c r="F128" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="H128" s="10"/>
+      <c r="G128" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H128" s="11"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="7">
         <v>128</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C129" s="9" t="s">
+      <c r="C129" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D129" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E129" s="9" t="s">
+      <c r="D129" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F129" s="9" t="s">
+      <c r="E129" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G129" s="9" t="s">
+      <c r="F129" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H129" s="9"/>
+      <c r="G129" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H129" s="10"/>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="7">
         <v>129</v>
       </c>
-      <c r="B130" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C130" s="10" t="s">
+      <c r="B130" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C130" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D130" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E130" s="10"/>
-      <c r="F130" s="10" t="s">
+      <c r="D130" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G130" s="10" t="s">
+      <c r="E130" s="11"/>
+      <c r="F130" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="H130" s="10"/>
+      <c r="G130" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H130" s="11"/>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="7">
         <v>130</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B131" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9">
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10">
         <v>4</v>
       </c>
-      <c r="F131" s="9" t="s">
+      <c r="F131" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G131" s="9" t="s">
+      <c r="G131" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H131" s="9"/>
+      <c r="H131" s="10"/>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="7">
         <v>131</v>
       </c>
-      <c r="B132" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D132" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E132" s="10"/>
-      <c r="F132" s="10" t="s">
+      <c r="B132" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D132" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G132" s="10" t="s">
+      <c r="E132" s="11"/>
+      <c r="F132" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H132" s="10"/>
+      <c r="G132" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H132" s="11"/>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="7">
         <v>132</v>
       </c>
-      <c r="B133" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D133" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E133" s="9"/>
-      <c r="F133" s="9" t="s">
+      <c r="B133" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D133" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G133" s="9" t="s">
+      <c r="E133" s="10"/>
+      <c r="F133" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="H133" s="9"/>
+      <c r="G133" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H133" s="10"/>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="7">
         <v>133</v>
       </c>
-      <c r="B134" s="10" t="s">
+      <c r="B134" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C134" s="10"/>
-      <c r="D134" s="10"/>
-      <c r="E134" s="10">
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11">
         <v>1</v>
       </c>
-      <c r="F134" s="10"/>
-      <c r="G134" s="10"/>
-      <c r="H134" s="10"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="7">
         <v>134</v>
       </c>
-      <c r="B135" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C135" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D135" s="9" t="s">
+      <c r="B135" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D135" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="9"/>
-      <c r="H135" s="9"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="10"/>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="7">
         <v>135</v>
       </c>
-      <c r="B136" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C136" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D136" s="10" t="s">
+      <c r="B136" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D136" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E136" s="10"/>
-      <c r="F136" s="10" t="s">
+      <c r="E136" s="11"/>
+      <c r="F136" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G136" s="10" t="s">
+      <c r="G136" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H136" s="10"/>
+      <c r="H136" s="11"/>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="7">
         <v>136</v>
       </c>
-      <c r="B137" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D137" s="9" t="s">
+      <c r="B137" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D137" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
-      <c r="H137" s="9"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10"/>
+      <c r="H137" s="10"/>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="7">
         <v>137</v>
       </c>
-      <c r="B138" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D138" s="10" t="s">
+      <c r="B138" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D138" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E138" s="10"/>
-      <c r="F138" s="10" t="s">
+      <c r="E138" s="11"/>
+      <c r="F138" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G138" s="10" t="s">
+      <c r="G138" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H138" s="10"/>
+      <c r="H138" s="11"/>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="7">
         <v>138</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="B139" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C139" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D139" s="9" t="s">
+      <c r="C139" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D139" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E139" s="9">
+      <c r="E139" s="10">
         <v>200</v>
       </c>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9"/>
-      <c r="H139" s="9"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="10"/>
+      <c r="H139" s="10"/>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="7">
         <v>139</v>
       </c>
-      <c r="B140" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C140" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D140" s="10" t="s">
+      <c r="B140" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D140" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E140" s="10"/>
-      <c r="F140" s="10" t="s">
+      <c r="E140" s="11"/>
+      <c r="F140" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G140" s="10" t="s">
+      <c r="G140" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H140" s="10"/>
+      <c r="H140" s="11"/>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="7">
         <v>140</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B141" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C141" s="9"/>
-      <c r="D141" s="9"/>
-      <c r="E141" s="9">
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10">
         <v>3</v>
       </c>
-      <c r="F141" s="9"/>
-      <c r="G141" s="9"/>
-      <c r="H141" s="9"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="10"/>
+      <c r="H141" s="10"/>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="7">
         <v>141</v>
       </c>
-      <c r="B142" s="10" t="s">
+      <c r="B142" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C142" s="10" t="s">
+      <c r="C142" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D142" s="10" t="s">
+      <c r="D142" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E142" s="10" t="s">
+      <c r="E142" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F142" s="10"/>
-      <c r="G142" s="10"/>
-      <c r="H142" s="10"/>
+      <c r="F142" s="11"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="11"/>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="7">
         <v>142</v>
       </c>
-      <c r="B143" s="9" t="s">
+      <c r="B143" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C143" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D143" s="9" t="s">
+      <c r="C143" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D143" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E143" s="9" t="s">
+      <c r="E143" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F143" s="9" t="s">
+      <c r="F143" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G143" s="9" t="s">
+      <c r="G143" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H143" s="9"/>
+      <c r="H143" s="10"/>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="7">
         <v>143</v>
       </c>
-      <c r="B144" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D144" s="10" t="s">
+      <c r="B144" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D144" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E144" s="10"/>
-      <c r="F144" s="10" t="s">
+      <c r="E144" s="11"/>
+      <c r="F144" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G144" s="10" t="s">
+      <c r="G144" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H144" s="10"/>
+      <c r="H144" s="11"/>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="7">
         <v>144</v>
       </c>
-      <c r="B145" s="9" t="s">
+      <c r="B145" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C145" s="9"/>
-      <c r="D145" s="9"/>
-      <c r="E145" s="9">
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10">
         <v>2</v>
       </c>
-      <c r="F145" s="9"/>
-      <c r="G145" s="9"/>
-      <c r="H145" s="9"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="10"/>
+      <c r="H145" s="10"/>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="7">
         <v>145</v>
       </c>
-      <c r="B146" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D146" s="10" t="s">
+      <c r="B146" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D146" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E146" s="10"/>
-      <c r="F146" s="10"/>
-      <c r="G146" s="10"/>
-      <c r="H146" s="10"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
+      <c r="G146" s="11"/>
+      <c r="H146" s="11"/>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="7">
         <v>146</v>
       </c>
-      <c r="B147" s="9" t="s">
+      <c r="B147" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C147" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D147" s="9" t="s">
+      <c r="C147" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D147" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E147" s="9" t="s">
+      <c r="E147" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F147" s="9"/>
-      <c r="G147" s="9"/>
-      <c r="H147" s="9"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="10"/>
+      <c r="H147" s="10"/>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="7">
         <v>147</v>
       </c>
-      <c r="B148" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C148" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D148" s="10" t="s">
+      <c r="B148" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D148" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E148" s="10"/>
-      <c r="F148" s="10"/>
-      <c r="G148" s="10"/>
-      <c r="H148" s="10"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="11"/>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="7">
         <v>148</v>
       </c>
-      <c r="B149" s="9" t="s">
+      <c r="B149" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C149" s="9"/>
-      <c r="D149" s="9"/>
-      <c r="E149" s="9">
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="10">
         <v>10</v>
       </c>
-      <c r="F149" s="9"/>
-      <c r="G149" s="9"/>
-      <c r="H149" s="9"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="10"/>
+      <c r="H149" s="10"/>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="7">
         <v>149</v>
       </c>
-      <c r="B150" s="10" t="s">
+      <c r="B150" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C150" s="10"/>
-      <c r="D150" s="10"/>
-      <c r="E150" s="10"/>
-      <c r="F150" s="10" t="s">
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G150" s="10" t="s">
+      <c r="G150" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H150" s="10"/>
+      <c r="H150" s="11"/>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="7">
         <v>150</v>
       </c>
-      <c r="B151" s="9" t="s">
+      <c r="B151" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C151" s="9"/>
-      <c r="D151" s="9"/>
-      <c r="E151" s="9">
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
+      <c r="E151" s="10">
         <v>10</v>
       </c>
-      <c r="F151" s="9"/>
-      <c r="G151" s="9"/>
-      <c r="H151" s="9"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="10"/>
+      <c r="H151" s="10"/>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="7">
         <v>151</v>
       </c>
-      <c r="B152" s="10" t="s">
+      <c r="B152" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C152" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D152" s="10" t="s">
+      <c r="C152" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D152" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E152" s="10"/>
-      <c r="F152" s="10" t="s">
+      <c r="E152" s="11"/>
+      <c r="F152" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G152" s="10" t="s">
+      <c r="G152" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="H152" s="10"/>
+      <c r="H152" s="11"/>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="7">
         <v>152</v>
       </c>
-      <c r="B153" s="9" t="s">
+      <c r="B153" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C153" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D153" s="9" t="s">
+      <c r="C153" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D153" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E153" s="9"/>
-      <c r="F153" s="9" t="s">
+      <c r="E153" s="10"/>
+      <c r="F153" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G153" s="9" t="s">
+      <c r="G153" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H153" s="9"/>
+      <c r="H153" s="10"/>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="7">
         <v>153</v>
       </c>
-      <c r="B154" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C154" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D154" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E154" s="9"/>
-      <c r="F154" s="9" t="s">
+      <c r="B154" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D154" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="G154" s="9" t="s">
+      <c r="E154" s="10"/>
+      <c r="F154" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="H154" s="9"/>
+      <c r="G154" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H154" s="10"/>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="7">
         <v>154</v>
       </c>
-      <c r="B155" s="10" t="s">
+      <c r="B155" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C155" s="10"/>
-      <c r="D155" s="10"/>
-      <c r="E155" s="10">
+      <c r="C155" s="11"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="11">
         <v>4</v>
       </c>
-      <c r="F155" s="10"/>
-      <c r="G155" s="10"/>
-      <c r="H155" s="10"/>
+      <c r="F155" s="11"/>
+      <c r="G155" s="11"/>
+      <c r="H155" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 B4 B7 B44 B47 C2:C3" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 B4 B7 B44 B47 C2:C3">
+      <formula1/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>[1]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C44 C45 C46 B5:B6 B45:B46">
+      <formula1>[2]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8 B48 B9:B12 B13:B31 B49:B52">
+      <formula1>[3]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32 C32 B33 C33 B34:B35 B36:B38 B40:B43 C34:C35 C36:C43">
+      <formula1>[4]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83 C83 B84 B85 B116 C116 B117 B120 B121 B122 C122 B123 C123 B53:B54 B55:B56 B64:B73 B74:B82 B86:B87 B88:B89 B97:B106 B107:B115 B118:B119 B124:B125 B126:B127 B135:B144 B145:B153 B154:B155 C53:C54 C55:C56 C64:C73 C74:C82 C84:C85 C86:C87 C88:C89 C97:C106 C107:C115 C117:C119 C120:C121 C124:C125 C126:C127 C135:C144 C145:C153 C154:C155">
+      <formula1>[5]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B57:B63 B90:B96 B128:B134">
+      <formula1>[6]DataList!#REF!</formula1>
+    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
-          <x14:formula1>
-            <xm:f>'C:\workspace\qa-automation\qa-automation\Zillion\testcases\Quick Start\Enrollment\[QS_Enrollment_EmailAndPasswordPageFieldValidations.xlsx]DataList'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C1</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
-          <x14:formula1>
-            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\LLS\Pharmacy\[Phar_Patient_App_ViewIncomplete -ok.xlsx]DataList'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C4 C5 C6 C44 C45 C46 B5:B6 B45:B46</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
-          <x14:formula1>
-            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\Patient\[PatientApp_Process_Positive_PCase_Yes.xlsx]DataList'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B8 B48 B9:B12 B13:B31 B49:B52</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
-          <x14:formula1>
-            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\LLS\Pharmacy\[L_Phar_Patient_App_Create__DCase_Pending_Positive - Copy.xlsx]DataList'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B32 C32 B33 C33 B34:B35 B36:B38 B40:B43 C34:C35 C36:C43</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
-          <x14:formula1>
-            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\CPR\Pharmacy\[Phar_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx]DataList'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B83 C83 B84 B85 B116 C116 B117 B120 B121 B122 C122 B123 C123 B53:B54 B55:B56 B64:B73 B74:B82 B86:B87 B88:B89 B97:B106 B107:B115 B118:B119 B124:B125 B126:B127 B135:B144 B145:B153 B154:B155 C53:C54 C55:C56 C64:C73 C74:C82 C84:C85 C86:C87 C88:C89 C97:C106 C107:C115 C117:C119 C120:C121 C124:C125 C126:C127 C135:C144 C145:C153 C154:C155</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
-          <x14:formula1>
-            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\CPR\Patient\[PatientApp_Process_Pending_DCase.xlsx]DataList'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B57:B63 B90:B96 B128:B134</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="52.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="13.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
       <c r="C14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
       <c r="C17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
       <c r="C21" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
+    <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
       <c r="C28" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="3:4">
+    <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="3:3">
@@ -4560,289 +5187,289 @@
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="66" spans="3:4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="67" spans="3:4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3">
       <c r="C67" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="3:4">
+    <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="69" spans="3:4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="70" spans="3:4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="72" spans="3:4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="74" spans="3:4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="75" spans="3:4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="76" spans="3:4">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="77" spans="3:4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="80" spans="3:4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97" spans="3:3">
@@ -4852,32 +5479,33 @@
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
       <formula1>$A$2:$A$12</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>

--- a/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create_PCase_Positive_POE2.xlsx
+++ b/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create_PCase_Positive_POE2.xlsx
@@ -231,7 +231,7 @@
     <t>Verified</t>
   </si>
   <si>
-    <t>BACK_BUTTON</t>
+    <t>GOHOME</t>
   </si>
   <si>
     <t>Click back button</t>
@@ -674,12 +674,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -712,39 +712,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -757,16 +730,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -780,32 +746,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -820,15 +778,31 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -836,6 +810,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -854,8 +836,31 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -888,61 +893,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,43 +911,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,25 +935,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,19 +1007,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1068,7 +1031,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1171,28 +1170,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1212,20 +1194,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1244,10 +1223,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1265,134 +1264,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1405,6 +1404,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
@@ -1836,8 +1836,8 @@
   <sheetPr/>
   <dimension ref="A1:H155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2473,7 +2473,7 @@
       <c r="C32" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E32" s="7"/>
@@ -2867,2033 +2867,2033 @@
       <c r="A53" s="7">
         <v>52</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="10" t="s">
+      <c r="B53" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10" t="s">
+      <c r="E53" s="11"/>
+      <c r="F53" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11">
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12">
         <v>3</v>
       </c>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="7">
         <v>54</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="10" t="s">
+      <c r="B55" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11">
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12">
         <v>3</v>
       </c>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="7">
         <v>56</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D57" s="10" t="s">
+      <c r="C57" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E57" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F57" s="10" t="s">
+      <c r="F57" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="G57" s="10" t="s">
+      <c r="G57" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="H57" s="10"/>
+      <c r="H57" s="11"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="E58" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F58" s="11" t="s">
+      <c r="F58" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="G58" s="11" t="s">
+      <c r="G58" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="H58" s="11"/>
+      <c r="H58" s="12"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="7">
         <v>58</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C59" s="10" t="s">
+      <c r="B59" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10" t="s">
+      <c r="E59" s="11"/>
+      <c r="F59" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G59" s="10" t="s">
+      <c r="G59" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="H59" s="10"/>
+      <c r="H59" s="11"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11">
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12">
         <v>4</v>
       </c>
-      <c r="F60" s="11" t="s">
+      <c r="F60" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G60" s="11" t="s">
+      <c r="G60" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H60" s="11"/>
+      <c r="H60" s="12"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="7">
         <v>60</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" s="10" t="s">
+      <c r="B61" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10" t="s">
+      <c r="E61" s="11"/>
+      <c r="F61" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="G61" s="10" t="s">
+      <c r="G61" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="H61" s="10"/>
+      <c r="H61" s="11"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="11" t="s">
+      <c r="B62" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11" t="s">
+      <c r="E62" s="12"/>
+      <c r="F62" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G62" s="11" t="s">
+      <c r="G62" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="H62" s="11"/>
+      <c r="H62" s="12"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="7">
         <v>62</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10">
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11">
         <v>1</v>
       </c>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="11" t="s">
+      <c r="B64" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="7">
         <v>64</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D65" s="10" t="s">
+      <c r="B65" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10" t="s">
+      <c r="E65" s="11"/>
+      <c r="F65" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G65" s="10" t="s">
+      <c r="G65" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H65" s="10"/>
+      <c r="H65" s="11"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="7">
         <v>65</v>
       </c>
-      <c r="B66" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="11" t="s">
+      <c r="B66" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="7">
         <v>66</v>
       </c>
-      <c r="B67" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67" s="10" t="s">
+      <c r="B67" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10" t="s">
+      <c r="E67" s="11"/>
+      <c r="F67" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G67" s="10" t="s">
+      <c r="G67" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H67" s="10"/>
+      <c r="H67" s="11"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="7">
         <v>67</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C68" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D68" s="11" t="s">
+      <c r="C68" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E68" s="12">
         <v>200</v>
       </c>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="7">
         <v>68</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D69" s="10" t="s">
+      <c r="B69" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10" t="s">
+      <c r="E69" s="11"/>
+      <c r="F69" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G69" s="10" t="s">
+      <c r="G69" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H69" s="10"/>
+      <c r="H69" s="11"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="7">
         <v>69</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11">
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12">
         <v>3</v>
       </c>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="7">
         <v>70</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E71" s="10" t="s">
+      <c r="E71" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="7">
         <v>71</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C72" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72" s="11" t="s">
+      <c r="C72" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E72" s="11" t="s">
+      <c r="E72" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F72" s="11" t="s">
+      <c r="F72" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G72" s="11" t="s">
+      <c r="G72" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H72" s="11"/>
+      <c r="H72" s="12"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="7">
         <v>72</v>
       </c>
-      <c r="B73" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D73" s="10" t="s">
+      <c r="B73" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10" t="s">
+      <c r="E73" s="11"/>
+      <c r="F73" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G73" s="10" t="s">
+      <c r="G73" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H73" s="10"/>
+      <c r="H73" s="11"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="7">
         <v>73</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11">
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12">
         <v>2</v>
       </c>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="7">
         <v>74</v>
       </c>
-      <c r="B75" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="10" t="s">
+      <c r="B75" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="7">
         <v>75</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C76" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D76" s="11" t="s">
+      <c r="C76" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E76" s="11" t="s">
+      <c r="E76" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="7">
         <v>76</v>
       </c>
-      <c r="B77" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="10" t="s">
+      <c r="B77" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="7">
         <v>77</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11">
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12">
         <v>10</v>
       </c>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="7">
         <v>78</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10" t="s">
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G79" s="10" t="s">
+      <c r="G79" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H79" s="10"/>
+      <c r="H79" s="11"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="7">
         <v>79</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11">
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12">
         <v>10</v>
       </c>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="7">
         <v>80</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C81" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D81" s="10" t="s">
+      <c r="C81" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10" t="s">
+      <c r="E81" s="11"/>
+      <c r="F81" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G81" s="10" t="s">
+      <c r="G81" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="H81" s="10"/>
+      <c r="H81" s="11"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="7">
         <v>81</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C82" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D82" s="11" t="s">
+      <c r="C82" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11" t="s">
+      <c r="E82" s="12"/>
+      <c r="F82" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G82" s="11" t="s">
+      <c r="G82" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H82" s="11"/>
+      <c r="H82" s="12"/>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="7">
         <v>82</v>
       </c>
-      <c r="B83" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D83" s="10" t="s">
+      <c r="B83" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10" t="s">
+      <c r="E83" s="11"/>
+      <c r="F83" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G83" s="10" t="s">
+      <c r="G83" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H83" s="10"/>
+      <c r="H83" s="11"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="7">
         <v>83</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11">
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12">
         <v>5</v>
       </c>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="7">
         <v>84</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C85" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D85" s="10" t="s">
+      <c r="C85" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E85" s="10" t="s">
+      <c r="E85" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F85" s="10" t="s">
+      <c r="F85" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="G85" s="10" t="s">
+      <c r="G85" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="H85" s="10"/>
+      <c r="H85" s="11"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="7">
         <v>85</v>
       </c>
-      <c r="B86" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C86" s="11" t="s">
+      <c r="B86" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11" t="s">
+      <c r="E86" s="12"/>
+      <c r="F86" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="7">
         <v>86</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10">
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11">
         <v>3</v>
       </c>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="7">
         <v>87</v>
       </c>
-      <c r="B88" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D88" s="11" t="s">
+      <c r="B88" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="7">
         <v>88</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10">
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11">
         <v>3</v>
       </c>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="7">
         <v>89</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C90" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D90" s="11" t="s">
+      <c r="C90" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E90" s="11" t="s">
+      <c r="E90" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F90" s="11" t="s">
+      <c r="F90" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G90" s="11" t="s">
+      <c r="G90" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="H90" s="11"/>
+      <c r="H90" s="12"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="7">
         <v>90</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C91" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D91" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E91" s="10" t="s">
+      <c r="E91" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F91" s="10" t="s">
+      <c r="F91" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G91" s="10" t="s">
+      <c r="G91" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="H91" s="10"/>
+      <c r="H91" s="11"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="7">
         <v>91</v>
       </c>
-      <c r="B92" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C92" s="11" t="s">
+      <c r="B92" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C92" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D92" s="11" t="s">
+      <c r="D92" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11" t="s">
+      <c r="E92" s="12"/>
+      <c r="F92" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="G92" s="11" t="s">
+      <c r="G92" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="H92" s="11"/>
+      <c r="H92" s="12"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="7">
         <v>92</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10">
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11">
         <v>4</v>
       </c>
-      <c r="F93" s="10" t="s">
+      <c r="F93" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G93" s="10" t="s">
+      <c r="G93" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H93" s="10"/>
+      <c r="H93" s="11"/>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="7">
         <v>93</v>
       </c>
-      <c r="B94" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D94" s="11" t="s">
+      <c r="B94" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11" t="s">
+      <c r="E94" s="12"/>
+      <c r="F94" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G94" s="11" t="s">
+      <c r="G94" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="H94" s="11"/>
+      <c r="H94" s="12"/>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="7">
         <v>94</v>
       </c>
-      <c r="B95" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D95" s="10" t="s">
+      <c r="B95" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10" t="s">
+      <c r="E95" s="11"/>
+      <c r="F95" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G95" s="10" t="s">
+      <c r="G95" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="H95" s="10"/>
+      <c r="H95" s="11"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="7">
         <v>95</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11">
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12">
         <v>1</v>
       </c>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="11"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="7">
         <v>96</v>
       </c>
-      <c r="B97" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D97" s="10" t="s">
+      <c r="B97" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="7">
         <v>97</v>
       </c>
-      <c r="B98" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D98" s="11" t="s">
+      <c r="B98" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11" t="s">
+      <c r="E98" s="12"/>
+      <c r="F98" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G98" s="11" t="s">
+      <c r="G98" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H98" s="11"/>
+      <c r="H98" s="12"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="7">
         <v>98</v>
       </c>
-      <c r="B99" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D99" s="10" t="s">
+      <c r="B99" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="10"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="7">
         <v>99</v>
       </c>
-      <c r="B100" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D100" s="11" t="s">
+      <c r="B100" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11" t="s">
+      <c r="E100" s="12"/>
+      <c r="F100" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G100" s="11" t="s">
+      <c r="G100" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H100" s="11"/>
+      <c r="H100" s="12"/>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="7">
         <v>100</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C101" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="10" t="s">
+      <c r="C101" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E101" s="10">
+      <c r="E101" s="11">
         <v>200</v>
       </c>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="10"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="7">
         <v>101</v>
       </c>
-      <c r="B102" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D102" s="11" t="s">
+      <c r="B102" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11" t="s">
+      <c r="E102" s="12"/>
+      <c r="F102" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G102" s="11" t="s">
+      <c r="G102" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H102" s="11"/>
+      <c r="H102" s="12"/>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="7">
         <v>102</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C103" s="10"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="10">
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11">
         <v>3</v>
       </c>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="10"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="7">
         <v>103</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B104" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="C104" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D104" s="11" t="s">
+      <c r="D104" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E104" s="11" t="s">
+      <c r="E104" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
-      <c r="H104" s="11"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="7">
         <v>104</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C105" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D105" s="10" t="s">
+      <c r="C105" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E105" s="10" t="s">
+      <c r="E105" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F105" s="10" t="s">
+      <c r="F105" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G105" s="10" t="s">
+      <c r="G105" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H105" s="10"/>
+      <c r="H105" s="11"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="7">
         <v>105</v>
       </c>
-      <c r="B106" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D106" s="11" t="s">
+      <c r="B106" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11" t="s">
+      <c r="E106" s="12"/>
+      <c r="F106" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G106" s="11" t="s">
+      <c r="G106" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H106" s="11"/>
+      <c r="H106" s="12"/>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="7">
         <v>106</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="10">
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11">
         <v>2</v>
       </c>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="10"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="7">
         <v>107</v>
       </c>
-      <c r="B108" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D108" s="11" t="s">
+      <c r="B108" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D108" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="11"/>
-      <c r="H108" s="11"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="7">
         <v>108</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C109" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D109" s="10" t="s">
+      <c r="C109" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D109" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E109" s="10" t="s">
+      <c r="E109" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="10"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="7">
         <v>109</v>
       </c>
-      <c r="B110" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C110" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D110" s="11" t="s">
+      <c r="B110" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D110" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E110" s="11"/>
-      <c r="F110" s="11"/>
-      <c r="G110" s="11"/>
-      <c r="H110" s="11"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="7">
         <v>110</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="10">
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11">
         <v>10</v>
       </c>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="10"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="7">
         <v>111</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B112" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C112" s="11"/>
-      <c r="D112" s="11"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="11" t="s">
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G112" s="11" t="s">
+      <c r="G112" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H112" s="11"/>
+      <c r="H112" s="12"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="7">
         <v>112</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="10">
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11">
         <v>10</v>
       </c>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
-      <c r="H113" s="10"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="7">
         <v>113</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="B114" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C114" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D114" s="11" t="s">
+      <c r="C114" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D114" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E114" s="11"/>
-      <c r="F114" s="11" t="s">
+      <c r="E114" s="12"/>
+      <c r="F114" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G114" s="11" t="s">
+      <c r="G114" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H114" s="11"/>
+      <c r="H114" s="12"/>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="7">
         <v>114</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="B115" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C115" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D115" s="10" t="s">
+      <c r="C115" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D115" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10" t="s">
+      <c r="E115" s="11"/>
+      <c r="F115" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G115" s="10" t="s">
+      <c r="G115" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H115" s="10"/>
+      <c r="H115" s="11"/>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="7">
         <v>115</v>
       </c>
-      <c r="B116" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C116" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D116" s="11" t="s">
+      <c r="B116" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D116" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E116" s="11"/>
-      <c r="F116" s="11" t="s">
+      <c r="E116" s="12"/>
+      <c r="F116" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G116" s="11" t="s">
+      <c r="G116" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H116" s="11"/>
+      <c r="H116" s="12"/>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="7">
         <v>116</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B117" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="10">
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11">
         <v>5</v>
       </c>
-      <c r="F117" s="10"/>
-      <c r="G117" s="10"/>
-      <c r="H117" s="10"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11"/>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="7">
         <v>117</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B118" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C118" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D118" s="11" t="s">
+      <c r="C118" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D118" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E118" s="11" t="s">
+      <c r="E118" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="F118" s="11" t="s">
+      <c r="F118" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="G118" s="11" t="s">
+      <c r="G118" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="H118" s="11"/>
+      <c r="H118" s="12"/>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="7">
         <v>118</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C119" s="10" t="s">
+      <c r="C119" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D119" s="10" t="s">
+      <c r="D119" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E119" s="10" t="s">
+      <c r="E119" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F119" s="10"/>
-      <c r="G119" s="10"/>
-      <c r="H119" s="10"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11"/>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="7">
         <v>119</v>
       </c>
-      <c r="B120" s="11" t="s">
+      <c r="B120" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="C120" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D120" s="11" t="s">
+      <c r="D120" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E120" s="11" t="s">
+      <c r="E120" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F120" s="11"/>
-      <c r="G120" s="11"/>
-      <c r="H120" s="11"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="7">
         <v>120</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="C121" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D121" s="10" t="s">
+      <c r="D121" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E121" s="10" t="s">
+      <c r="E121" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="10"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="7">
         <v>121</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="B122" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C122" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D122" s="11" t="s">
+      <c r="C122" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D122" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="E122" s="11">
+      <c r="E122" s="12">
         <v>2</v>
       </c>
-      <c r="F122" s="11"/>
-      <c r="G122" s="11"/>
-      <c r="H122" s="11"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="7">
         <v>122</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C123" s="10" t="s">
+      <c r="C123" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D123" s="10" t="s">
+      <c r="D123" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E123" s="10">
+      <c r="E123" s="11">
         <v>10002</v>
       </c>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
-      <c r="H123" s="10"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="11"/>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="7">
         <v>123</v>
       </c>
-      <c r="B124" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C124" s="11" t="s">
+      <c r="B124" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C124" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D124" s="11" t="s">
+      <c r="D124" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E124" s="11"/>
-      <c r="F124" s="11" t="s">
+      <c r="E124" s="12"/>
+      <c r="F124" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G124" s="11"/>
-      <c r="H124" s="11"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="7">
         <v>124</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B125" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C125" s="10"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="10">
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11">
         <v>3</v>
       </c>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="10"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="7">
         <v>125</v>
       </c>
-      <c r="B126" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C126" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D126" s="11" t="s">
+      <c r="B126" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D126" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E126" s="11"/>
-      <c r="F126" s="11"/>
-      <c r="G126" s="11"/>
-      <c r="H126" s="11"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="7">
         <v>126</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="B127" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C127" s="10"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="10">
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11">
         <v>3</v>
       </c>
-      <c r="F127" s="10"/>
-      <c r="G127" s="10"/>
-      <c r="H127" s="10"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="7">
         <v>127</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="B128" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C128" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D128" s="11" t="s">
+      <c r="C128" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D128" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E128" s="11" t="s">
+      <c r="E128" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F128" s="11" t="s">
+      <c r="F128" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G128" s="11" t="s">
+      <c r="G128" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="H128" s="11"/>
+      <c r="H128" s="12"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="7">
         <v>128</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C129" s="10" t="s">
+      <c r="C129" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D129" s="10" t="s">
+      <c r="D129" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E129" s="10" t="s">
+      <c r="E129" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F129" s="10" t="s">
+      <c r="F129" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G129" s="10" t="s">
+      <c r="G129" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="H129" s="10"/>
+      <c r="H129" s="11"/>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="7">
         <v>129</v>
       </c>
-      <c r="B130" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C130" s="11" t="s">
+      <c r="B130" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C130" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D130" s="11" t="s">
+      <c r="D130" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E130" s="11"/>
-      <c r="F130" s="11" t="s">
+      <c r="E130" s="12"/>
+      <c r="F130" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="G130" s="11" t="s">
+      <c r="G130" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="H130" s="11"/>
+      <c r="H130" s="12"/>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="7">
         <v>130</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="B131" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C131" s="10"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="10">
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11">
         <v>4</v>
       </c>
-      <c r="F131" s="10" t="s">
+      <c r="F131" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G131" s="10" t="s">
+      <c r="G131" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H131" s="10"/>
+      <c r="H131" s="11"/>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="7">
         <v>131</v>
       </c>
-      <c r="B132" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C132" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D132" s="11" t="s">
+      <c r="B132" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D132" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E132" s="11"/>
-      <c r="F132" s="11" t="s">
+      <c r="E132" s="12"/>
+      <c r="F132" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G132" s="11" t="s">
+      <c r="G132" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="H132" s="11"/>
+      <c r="H132" s="12"/>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="7">
         <v>132</v>
       </c>
-      <c r="B133" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D133" s="10" t="s">
+      <c r="B133" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D133" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E133" s="10"/>
-      <c r="F133" s="10" t="s">
+      <c r="E133" s="11"/>
+      <c r="F133" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G133" s="10" t="s">
+      <c r="G133" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="H133" s="10"/>
+      <c r="H133" s="11"/>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="7">
         <v>133</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="B134" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C134" s="11"/>
-      <c r="D134" s="11"/>
-      <c r="E134" s="11">
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12">
         <v>1</v>
       </c>
-      <c r="F134" s="11"/>
-      <c r="G134" s="11"/>
-      <c r="H134" s="11"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="12"/>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="7">
         <v>134</v>
       </c>
-      <c r="B135" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D135" s="10" t="s">
+      <c r="B135" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D135" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10"/>
-      <c r="G135" s="10"/>
-      <c r="H135" s="10"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="7">
         <v>135</v>
       </c>
-      <c r="B136" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C136" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D136" s="11" t="s">
+      <c r="B136" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D136" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E136" s="11"/>
-      <c r="F136" s="11" t="s">
+      <c r="E136" s="12"/>
+      <c r="F136" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G136" s="11" t="s">
+      <c r="G136" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H136" s="11"/>
+      <c r="H136" s="12"/>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="7">
         <v>136</v>
       </c>
-      <c r="B137" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D137" s="10" t="s">
+      <c r="B137" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D137" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E137" s="10"/>
-      <c r="F137" s="10"/>
-      <c r="G137" s="10"/>
-      <c r="H137" s="10"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="7">
         <v>137</v>
       </c>
-      <c r="B138" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C138" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D138" s="11" t="s">
+      <c r="B138" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D138" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E138" s="11"/>
-      <c r="F138" s="11" t="s">
+      <c r="E138" s="12"/>
+      <c r="F138" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G138" s="11" t="s">
+      <c r="G138" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H138" s="11"/>
+      <c r="H138" s="12"/>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="7">
         <v>138</v>
       </c>
-      <c r="B139" s="10" t="s">
+      <c r="B139" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C139" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D139" s="10" t="s">
+      <c r="C139" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D139" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E139" s="10">
+      <c r="E139" s="11">
         <v>200</v>
       </c>
-      <c r="F139" s="10"/>
-      <c r="G139" s="10"/>
-      <c r="H139" s="10"/>
+      <c r="F139" s="11"/>
+      <c r="G139" s="11"/>
+      <c r="H139" s="11"/>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="7">
         <v>139</v>
       </c>
-      <c r="B140" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C140" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D140" s="11" t="s">
+      <c r="B140" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D140" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E140" s="11"/>
-      <c r="F140" s="11" t="s">
+      <c r="E140" s="12"/>
+      <c r="F140" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G140" s="11" t="s">
+      <c r="G140" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H140" s="11"/>
+      <c r="H140" s="12"/>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="7">
         <v>140</v>
       </c>
-      <c r="B141" s="10" t="s">
+      <c r="B141" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
-      <c r="E141" s="10">
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11">
         <v>3</v>
       </c>
-      <c r="F141" s="10"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="10"/>
+      <c r="F141" s="11"/>
+      <c r="G141" s="11"/>
+      <c r="H141" s="11"/>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="7">
         <v>141</v>
       </c>
-      <c r="B142" s="11" t="s">
+      <c r="B142" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C142" s="11" t="s">
+      <c r="C142" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D142" s="11" t="s">
+      <c r="D142" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E142" s="11" t="s">
+      <c r="E142" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F142" s="11"/>
-      <c r="G142" s="11"/>
-      <c r="H142" s="11"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="12"/>
+      <c r="H142" s="12"/>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="7">
         <v>142</v>
       </c>
-      <c r="B143" s="10" t="s">
+      <c r="B143" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C143" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D143" s="10" t="s">
+      <c r="C143" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D143" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E143" s="10" t="s">
+      <c r="E143" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F143" s="10" t="s">
+      <c r="F143" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G143" s="10" t="s">
+      <c r="G143" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H143" s="10"/>
+      <c r="H143" s="11"/>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="7">
         <v>143</v>
       </c>
-      <c r="B144" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C144" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D144" s="11" t="s">
+      <c r="B144" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D144" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E144" s="11"/>
-      <c r="F144" s="11" t="s">
+      <c r="E144" s="12"/>
+      <c r="F144" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G144" s="11" t="s">
+      <c r="G144" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H144" s="11"/>
+      <c r="H144" s="12"/>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="7">
         <v>144</v>
       </c>
-      <c r="B145" s="10" t="s">
+      <c r="B145" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C145" s="10"/>
-      <c r="D145" s="10"/>
-      <c r="E145" s="10">
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11">
         <v>2</v>
       </c>
-      <c r="F145" s="10"/>
-      <c r="G145" s="10"/>
-      <c r="H145" s="10"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="11"/>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="7">
         <v>145</v>
       </c>
-      <c r="B146" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C146" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D146" s="11" t="s">
+      <c r="B146" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D146" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E146" s="11"/>
-      <c r="F146" s="11"/>
-      <c r="G146" s="11"/>
-      <c r="H146" s="11"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="12"/>
+      <c r="G146" s="12"/>
+      <c r="H146" s="12"/>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="7">
         <v>146</v>
       </c>
-      <c r="B147" s="10" t="s">
+      <c r="B147" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C147" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D147" s="10" t="s">
+      <c r="C147" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D147" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E147" s="10" t="s">
+      <c r="E147" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F147" s="10"/>
-      <c r="G147" s="10"/>
-      <c r="H147" s="10"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="11"/>
+      <c r="H147" s="11"/>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="7">
         <v>147</v>
       </c>
-      <c r="B148" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C148" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D148" s="11" t="s">
+      <c r="B148" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D148" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E148" s="11"/>
-      <c r="F148" s="11"/>
-      <c r="G148" s="11"/>
-      <c r="H148" s="11"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="12"/>
+      <c r="G148" s="12"/>
+      <c r="H148" s="12"/>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="7">
         <v>148</v>
       </c>
-      <c r="B149" s="10" t="s">
+      <c r="B149" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C149" s="10"/>
-      <c r="D149" s="10"/>
-      <c r="E149" s="10">
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11">
         <v>10</v>
       </c>
-      <c r="F149" s="10"/>
-      <c r="G149" s="10"/>
-      <c r="H149" s="10"/>
+      <c r="F149" s="11"/>
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="7">
         <v>149</v>
       </c>
-      <c r="B150" s="11" t="s">
+      <c r="B150" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C150" s="11"/>
-      <c r="D150" s="11"/>
-      <c r="E150" s="11"/>
-      <c r="F150" s="11" t="s">
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G150" s="11" t="s">
+      <c r="G150" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H150" s="11"/>
+      <c r="H150" s="12"/>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="7">
         <v>150</v>
       </c>
-      <c r="B151" s="10" t="s">
+      <c r="B151" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C151" s="10"/>
-      <c r="D151" s="10"/>
-      <c r="E151" s="10">
+      <c r="C151" s="11"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="11">
         <v>10</v>
       </c>
-      <c r="F151" s="10"/>
-      <c r="G151" s="10"/>
-      <c r="H151" s="10"/>
+      <c r="F151" s="11"/>
+      <c r="G151" s="11"/>
+      <c r="H151" s="11"/>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="7">
         <v>151</v>
       </c>
-      <c r="B152" s="11" t="s">
+      <c r="B152" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C152" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D152" s="11" t="s">
+      <c r="C152" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D152" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E152" s="11"/>
-      <c r="F152" s="11" t="s">
+      <c r="E152" s="12"/>
+      <c r="F152" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G152" s="11" t="s">
+      <c r="G152" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H152" s="11"/>
+      <c r="H152" s="12"/>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="7">
         <v>152</v>
       </c>
-      <c r="B153" s="10" t="s">
+      <c r="B153" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C153" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D153" s="10" t="s">
+      <c r="C153" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D153" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E153" s="10"/>
-      <c r="F153" s="10" t="s">
+      <c r="E153" s="11"/>
+      <c r="F153" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G153" s="10" t="s">
+      <c r="G153" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H153" s="10"/>
+      <c r="H153" s="11"/>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="7">
         <v>153</v>
       </c>
-      <c r="B154" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D154" s="10" t="s">
+      <c r="B154" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D154" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E154" s="10"/>
-      <c r="F154" s="10" t="s">
+      <c r="E154" s="11"/>
+      <c r="F154" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="G154" s="10" t="s">
+      <c r="G154" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="H154" s="10"/>
+      <c r="H154" s="11"/>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="7">
         <v>154</v>
       </c>
-      <c r="B155" s="11" t="s">
+      <c r="B155" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C155" s="11"/>
-      <c r="D155" s="11"/>
-      <c r="E155" s="11">
+      <c r="C155" s="12"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12">
         <v>4</v>
       </c>
-      <c r="F155" s="11"/>
-      <c r="G155" s="11"/>
-      <c r="H155" s="11"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="7">
